--- a/Expences Sheet.xlsx
+++ b/Expences Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Working Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE391F17-2532-4D98-962A-80D4173F20FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F826A-2154-4D8B-9E3D-1B0A09C57122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6754BF64-9A86-43DB-8C3B-05225E1754DA}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>Total No Of Tea</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
